--- a/data/case1/2/V1_13.xlsx
+++ b/data/case1/2/V1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.9999999901259975</v>
+        <v>0.99999999571140963</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99846284928817619</v>
+        <v>0.99847826396817507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99378561916274633</v>
+        <v>0.99454210293986511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99846098156738639</v>
+        <v>0.99749455675504506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99005329297616573</v>
+        <v>0.98729255514584791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97049529890219677</v>
+        <v>0.96480217850274241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96903478274762989</v>
+        <v>0.96153736771128462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96631759051011723</v>
+        <v>0.95654295530792055</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96624308065132625</v>
+        <v>0.94479836781111737</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.96711797738151339</v>
+        <v>0.93397042130395613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.96726812904996851</v>
+        <v>0.93237431155345429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.96781095301813913</v>
+        <v>0.92959454046893253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.96636893452742889</v>
+        <v>0.91830761508414094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.96689793319372663</v>
+        <v>0.91414024835183438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.96847663700052911</v>
+        <v>0.91154874133884511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.97078665286581534</v>
+        <v>0.90904223699119868</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9783385434238876</v>
+        <v>0.9053342813666494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9821136214294246</v>
+        <v>0.90422535677000582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99740971926215549</v>
+        <v>0.99730323367622553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99029296900653496</v>
+        <v>0.9889827947935842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98889452633672281</v>
+        <v>0.98758429122786118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98763003394670634</v>
+        <v>0.98631978307968571</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98454676934398044</v>
+        <v>0.98750796000202135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97152647162547079</v>
+        <v>0.97448775575893265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96506958473888793</v>
+        <v>0.96803086555200557</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96782052939830809</v>
+        <v>0.96193411531836204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9643399814899003</v>
+        <v>0.95818404770645138</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94967679200298361</v>
+        <v>0.94456261010248932</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93944675321500337</v>
+        <v>0.92929637569718615</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93520508519411805</v>
+        <v>0.9227269941320746</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93406653968846842</v>
+        <v>0.91507387824273723</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93238732007694602</v>
+        <v>0.9133945571808253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93186732585887178</v>
+        <v>0.91287454139558055</v>
       </c>
     </row>
   </sheetData>
